--- a/progetti-per-test/angular-example-no-id/confronto-pratiche-angular-no-id.xlsx
+++ b/progetti-per-test/angular-example-no-id/confronto-pratiche-angular-no-id.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\volpe\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN10\Desktop\Tirocinio-Aggiornato\progetti-per-test\angular-example-no-id\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CB2A4B-4283-4CA1-8A44-E0A09D2DEF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94A46F38-C6DC-4452-87C5-76DDFD658DAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="prova" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -101,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -961,30 +960,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1616BF-E4AC-4F3A-B547-FB356D42BFE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" customWidth="1"/>
+    <col min="5" max="5" width="24.09765625" customWidth="1"/>
+    <col min="6" max="6" width="25.69921875" customWidth="1"/>
+    <col min="7" max="7" width="25.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1047,17 +1046,17 @@
         <v>18</v>
       </c>
       <c r="E5" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>40.625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1072,17 +1071,17 @@
         <v>24</v>
       </c>
       <c r="E6" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>21.875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1097,17 +1096,17 @@
         <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>21.875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1122,17 +1121,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>21.875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1147,17 +1146,17 @@
         <v>24</v>
       </c>
       <c r="E9" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>21.875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1166,7 +1165,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>21.875</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,17 +1205,17 @@
         <v>16</v>
       </c>
       <c r="E12" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>46.875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1231,17 +1230,17 @@
         <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,17 +1255,17 @@
         <v>24</v>
       </c>
       <c r="E14" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>21.875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1281,17 +1280,17 @@
         <v>25</v>
       </c>
       <c r="E15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1306,17 +1305,17 @@
         <v>25</v>
       </c>
       <c r="E16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="2"/>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1325,7 +1324,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +1335,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1353,17 +1352,17 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1">
         <f>SUM(E4:E9)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <f>SUM(F4:F9)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1">
         <f>SUM(B20,C20)</f>
@@ -1373,17 +1372,17 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1">
         <f>SUM(E11:E16)</f>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <f>SUM(F11:F16)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1">
         <f>SUM(B21,C21)</f>

--- a/progetti-per-test/angular-example-no-id/confronto-pratiche-angular-no-id.xlsx
+++ b/progetti-per-test/angular-example-no-id/confronto-pratiche-angular-no-id.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Metodo di Generazione</t>
   </si>
@@ -94,7 +94,16 @@
     <t>Applicazione: angular-example-no-id - Confronto Robustezza Locatori</t>
   </si>
   <si>
-    <t>Totale</t>
+    <t>Totale fallimenti</t>
+  </si>
+  <si>
+    <t>Generazioni mancanti</t>
+  </si>
+  <si>
+    <t>Generazioni non necessarie</t>
+  </si>
+  <si>
+    <t>Generazioni necessarie ma errate</t>
   </si>
 </sst>
 </file>
@@ -963,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -975,7 +984,7 @@
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="5" width="24.09765625" customWidth="1"/>
     <col min="6" max="6" width="25.69921875" customWidth="1"/>
-    <col min="7" max="7" width="25.3984375" customWidth="1"/>
+    <col min="7" max="7" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1348,9 +1357,15 @@
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
@@ -1368,9 +1383,15 @@
         <f>SUM(B20,C20)</f>
         <v>52</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
@@ -1388,9 +1409,15 @@
         <f>SUM(B21,C21)</f>
         <v>54</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
